--- a/data/Excel/TGHD.xlsx
+++ b/data/Excel/TGHD.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,7 +66,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,67 +88,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -156,6 +95,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -163,6 +110,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -171,10 +126,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,7 +144,51 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,181 +203,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,41 +412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -465,8 +430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +447,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,10 +489,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,146 +527,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
@@ -1063,9 +1067,229 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>1611060703</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>1611061937</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>1611067867</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>1611061912</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
+        <v>1611061940</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4">
+        <v>1611065432</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4">
+        <v>1611061786</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4">
+        <v>1611061788</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>1611061789</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4">
+        <v>1611061790</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4">
+        <v>1611063780</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4">
+        <v>1611063798</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4">
+        <v>1611063741</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4">
+        <v>1611063742</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4">
+        <v>1611063743</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4">
+        <v>1611063744</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4">
+        <v>1611063745</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4">
+        <v>1611063746</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4">
+        <v>1611063747</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4">
+        <v>1611063748</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
